--- a/compteurs.xlsx
+++ b/compteurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/735d5fd0846662ea/Documents/08_Projets/01_PanneauPV/DataAnalysis/SmartMeterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_2B59D2BFD330DE75EB7A331159DDE8B676F9F418" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90ADDCBB-AB25-4FC3-926B-D8FFBF14534E}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD380D3553B38211159D508706365E137" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0A0597-C643-4A45-8169-BF36D6483679}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="-98" windowWidth="21794" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Timestamp</t>
   </si>
@@ -41,24 +41,42 @@
     <t>Grid In</t>
   </si>
   <si>
+    <t>Delta Grid In</t>
+  </si>
+  <si>
     <t>Grid Out</t>
   </si>
   <si>
+    <t>Delta Grid Out</t>
+  </si>
+  <si>
     <t>PV</t>
   </si>
   <si>
+    <t>Delta PV</t>
+  </si>
+  <si>
     <t>PV Restant</t>
   </si>
   <si>
     <t>MPA</t>
   </si>
   <si>
+    <t>Delta MPA</t>
+  </si>
+  <si>
     <t>SDA</t>
   </si>
   <si>
+    <t>Delta SDA</t>
+  </si>
+  <si>
     <t>Commun</t>
   </si>
   <si>
+    <t>Delta Commun</t>
+  </si>
+  <si>
     <t>2024-12-08T12:45:00Z</t>
   </si>
   <si>
@@ -77,25 +95,16 @@
     <t>2024-12-08T14:00:00Z</t>
   </si>
   <si>
+    <t>2024-12-08T14:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-08T14:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-08T14:45:00Z</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Delta Grid In</t>
-  </si>
-  <si>
-    <t>Delta grid out</t>
-  </si>
-  <si>
-    <t>Delta pv</t>
-  </si>
-  <si>
-    <t>Delta MPA</t>
-  </si>
-  <si>
-    <t>Delta SDA</t>
-  </si>
-  <si>
-    <t>Delta Commun</t>
   </si>
 </sst>
 </file>
@@ -458,28 +467,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O3" sqref="O3:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,351 +499,494 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>4389491</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>21</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>10442420</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>2013276</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2">
         <v>375358</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4392011</v>
       </c>
       <c r="C3">
-        <f>B3-B2</f>
         <v>2520</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <f>D3-D2</f>
         <v>0</v>
       </c>
       <c r="F3">
         <v>21</v>
       </c>
       <c r="G3">
-        <f>F3-F2</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>G3-E3</f>
         <v>0</v>
       </c>
       <c r="I3">
         <v>10443184</v>
       </c>
       <c r="J3">
-        <f>I3-I2</f>
         <v>764</v>
       </c>
       <c r="K3">
         <v>2014677</v>
       </c>
       <c r="L3">
-        <f>K3-K2</f>
         <v>1401</v>
       </c>
       <c r="M3">
         <v>375722</v>
       </c>
       <c r="N3">
-        <f>M3-M2</f>
         <v>364</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>J3+L3+N3</f>
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>4394999</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="0">B4-B3</f>
         <v>2988</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="1">D4-D3</f>
         <v>0</v>
       </c>
       <c r="F4">
         <v>21</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="2">F4-F3</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="3">G4-E4</f>
         <v>0</v>
       </c>
       <c r="I4">
         <v>10444139</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="4">I4-I3</f>
         <v>955</v>
       </c>
       <c r="K4">
         <v>2016485</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="5">K4-K3</f>
         <v>1808</v>
       </c>
       <c r="M4">
         <v>375937</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N7" si="6">M4-M3</f>
         <v>215</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="0">J4+L4+N4</f>
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4397919</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>2920</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
         <v>21</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>10445545</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
         <v>1406</v>
       </c>
       <c r="K5">
         <v>2017780</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
         <v>1295</v>
       </c>
       <c r="M5">
         <v>376152</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4401211</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
         <v>3292</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
         <v>21</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
         <v>10446892</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
         <v>1347</v>
       </c>
       <c r="K6">
         <v>2019513</v>
       </c>
       <c r="L6">
-        <f t="shared" si="5"/>
         <v>1733</v>
       </c>
       <c r="M6">
         <v>376366</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4403586</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
         <v>2375</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
         <v>21</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>G7-E7</f>
         <v>0</v>
       </c>
       <c r="I7">
         <v>10447669</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
         <v>777</v>
       </c>
       <c r="K7">
         <v>2020889</v>
       </c>
       <c r="L7">
-        <f t="shared" si="5"/>
         <v>1376</v>
       </c>
       <c r="M7">
         <v>376579</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>4405332</v>
       </c>
       <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>14095</v>
+        <v>1746</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
-        <f>SUM(E3:E7)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
       </c>
       <c r="G8">
-        <f>SUM(G2:G7)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUM(H3:H7)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10448481</v>
       </c>
       <c r="J8">
-        <f>SUM(J3:J7)</f>
-        <v>5249</v>
+        <v>812</v>
+      </c>
+      <c r="K8">
+        <v>2021448</v>
       </c>
       <c r="L8">
-        <f>SUM(L3:L7)</f>
-        <v>7613</v>
+        <v>559</v>
+      </c>
+      <c r="M8">
+        <v>376949</v>
       </c>
       <c r="N8">
-        <f>SUM(N3:N7)</f>
-        <v>1221</v>
+        <v>370</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>4407957</v>
+      </c>
+      <c r="C9">
+        <v>2625</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10449856</v>
+      </c>
+      <c r="J9">
+        <v>1375</v>
+      </c>
+      <c r="K9">
+        <v>2022394</v>
+      </c>
+      <c r="L9">
+        <v>946</v>
+      </c>
+      <c r="M9">
+        <v>377257</v>
+      </c>
+      <c r="N9">
+        <v>308</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>4410714</v>
+      </c>
+      <c r="C10">
+        <v>2757</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10450903</v>
+      </c>
+      <c r="J10">
+        <v>1047</v>
+      </c>
+      <c r="K10">
+        <v>2023811</v>
+      </c>
+      <c r="L10">
+        <v>1417</v>
+      </c>
+      <c r="M10">
+        <v>377551</v>
+      </c>
+      <c r="N10">
+        <v>294</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>21223</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8483</v>
+      </c>
+      <c r="L11">
+        <v>10535</v>
+      </c>
+      <c r="N11">
+        <v>2193</v>
       </c>
     </row>
   </sheetData>

--- a/compteurs.xlsx
+++ b/compteurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/735d5fd0846662ea/Documents/08_Projets/01_PanneauPV/DataAnalysis/SmartMeterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD380D3553B38211159D508706365E137" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0A0597-C643-4A45-8169-BF36D6483679}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_2B59D2BFD3D0D0181FF937115945D8F471A1FCBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90D14A5-BF22-44F8-96D9-1FB4CECC1639}"/>
   <bookViews>
     <workbookView xWindow="19103" yWindow="-98" windowWidth="21794" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -77,31 +77,25 @@
     <t>Delta Commun</t>
   </si>
   <si>
-    <t>2024-12-08T12:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T13:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T13:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T13:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T13:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T14:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T14:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T14:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T14:45:00Z</t>
+    <t>Conso Total MPA</t>
+  </si>
+  <si>
+    <t>Conso Total SDA</t>
+  </si>
+  <si>
+    <t>2024-12-14T16:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T16:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T17:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T17:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T17:30:00Z</t>
   </si>
   <si>
     <t>Total</t>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +483,12 @@
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,13 +531,20 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>4389491</v>
+        <v>5772468</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -552,441 +556,323 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>11074720</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2645830</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>492006</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>5779607</v>
+      </c>
+      <c r="C3">
+        <v>7139</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>11077152</v>
+      </c>
+      <c r="J3">
+        <v>2432</v>
+      </c>
+      <c r="K3">
+        <v>2650003</v>
+      </c>
+      <c r="L3">
+        <v>4173</v>
+      </c>
+      <c r="M3">
+        <v>492502</v>
+      </c>
+      <c r="N3">
+        <v>496</v>
+      </c>
+      <c r="P3">
+        <v>2694.3416420222502</v>
+      </c>
+      <c r="Q3">
+        <v>4444.6583579777507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>5784595</v>
+      </c>
+      <c r="C4">
+        <v>4988</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>11078889</v>
+      </c>
+      <c r="J4">
+        <v>1737</v>
+      </c>
+      <c r="K4">
+        <v>2652994</v>
+      </c>
+      <c r="L4">
+        <v>2991</v>
+      </c>
+      <c r="M4">
+        <v>492779</v>
+      </c>
+      <c r="N4">
+        <v>277</v>
+      </c>
+      <c r="P4">
+        <v>1869.12967032967</v>
+      </c>
+      <c r="Q4">
+        <v>3118.8703296703302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>5789705</v>
+      </c>
+      <c r="C5">
+        <v>5110</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>11080508</v>
+      </c>
+      <c r="J5">
+        <v>1619</v>
+      </c>
+      <c r="K5">
+        <v>2656080</v>
+      </c>
+      <c r="L5">
+        <v>3086</v>
+      </c>
+      <c r="M5">
+        <v>493149</v>
+      </c>
+      <c r="N5">
+        <v>370</v>
+      </c>
+      <c r="P5">
+        <v>1816.4413793103449</v>
+      </c>
+      <c r="Q5">
+        <v>3293.558620689656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5794642</v>
+      </c>
+      <c r="C6">
+        <v>4937</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>11081948</v>
+      </c>
+      <c r="J6">
+        <v>1440</v>
+      </c>
+      <c r="K6">
+        <v>2659337</v>
+      </c>
+      <c r="L6">
+        <v>3257</v>
+      </c>
+      <c r="M6">
+        <v>493408</v>
+      </c>
+      <c r="N6">
+        <v>259</v>
+      </c>
+      <c r="P6">
+        <v>1563.4829499596451</v>
+      </c>
+      <c r="Q6">
+        <v>3373.517050040356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>10442420</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2013276</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>375358</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>4392011</v>
-      </c>
-      <c r="C3">
-        <v>2520</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>10443184</v>
-      </c>
-      <c r="J3">
-        <v>764</v>
-      </c>
-      <c r="K3">
-        <v>2014677</v>
-      </c>
-      <c r="L3">
-        <v>1401</v>
-      </c>
-      <c r="M3">
-        <v>375722</v>
-      </c>
-      <c r="N3">
-        <v>364</v>
-      </c>
-      <c r="O3">
+      <c r="C7">
+        <v>22174</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7228</v>
+      </c>
+      <c r="L7">
+        <v>13507</v>
+      </c>
+      <c r="N7">
+        <v>1402</v>
+      </c>
+      <c r="P7">
+        <v>7943.3956416219098</v>
+      </c>
+      <c r="Q7">
+        <v>14230.60435837809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N10">
         <f>J3+L3+N3</f>
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>4394999</v>
-      </c>
-      <c r="C4">
-        <v>2988</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>10444139</v>
-      </c>
-      <c r="J4">
-        <v>955</v>
-      </c>
-      <c r="K4">
-        <v>2016485</v>
-      </c>
-      <c r="L4">
-        <v>1808</v>
-      </c>
-      <c r="M4">
-        <v>375937</v>
-      </c>
-      <c r="N4">
-        <v>215</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O10" si="0">J4+L4+N4</f>
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>4397919</v>
-      </c>
-      <c r="C5">
-        <v>2920</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10445545</v>
-      </c>
-      <c r="J5">
-        <v>1406</v>
-      </c>
-      <c r="K5">
-        <v>2017780</v>
-      </c>
-      <c r="L5">
-        <v>1295</v>
-      </c>
-      <c r="M5">
-        <v>376152</v>
-      </c>
-      <c r="N5">
-        <v>215</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>4401211</v>
-      </c>
-      <c r="C6">
-        <v>3292</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10446892</v>
-      </c>
-      <c r="J6">
-        <v>1347</v>
-      </c>
-      <c r="K6">
-        <v>2019513</v>
-      </c>
-      <c r="L6">
-        <v>1733</v>
-      </c>
-      <c r="M6">
-        <v>376366</v>
-      </c>
-      <c r="N6">
-        <v>214</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>3294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>4403586</v>
-      </c>
-      <c r="C7">
-        <v>2375</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10447669</v>
-      </c>
-      <c r="J7">
-        <v>777</v>
-      </c>
-      <c r="K7">
-        <v>2020889</v>
-      </c>
-      <c r="L7">
-        <v>1376</v>
-      </c>
-      <c r="M7">
-        <v>376579</v>
-      </c>
-      <c r="N7">
-        <v>213</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>4405332</v>
-      </c>
-      <c r="C8">
-        <v>1746</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>10448481</v>
-      </c>
-      <c r="J8">
-        <v>812</v>
-      </c>
-      <c r="K8">
-        <v>2021448</v>
-      </c>
-      <c r="L8">
-        <v>559</v>
-      </c>
-      <c r="M8">
-        <v>376949</v>
-      </c>
-      <c r="N8">
-        <v>370</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>4407957</v>
-      </c>
-      <c r="C9">
-        <v>2625</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>10449856</v>
-      </c>
-      <c r="J9">
-        <v>1375</v>
-      </c>
-      <c r="K9">
-        <v>2022394</v>
-      </c>
-      <c r="L9">
-        <v>946</v>
-      </c>
-      <c r="M9">
-        <v>377257</v>
-      </c>
-      <c r="N9">
-        <v>308</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>4410714</v>
-      </c>
-      <c r="C10">
-        <v>2757</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>10450903</v>
-      </c>
-      <c r="J10">
-        <v>1047</v>
-      </c>
-      <c r="K10">
-        <v>2023811</v>
-      </c>
-      <c r="L10">
-        <v>1417</v>
-      </c>
-      <c r="M10">
-        <v>377551</v>
-      </c>
-      <c r="N10">
-        <v>294</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>21223</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>8483</v>
-      </c>
-      <c r="L11">
-        <v>10535</v>
-      </c>
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N11">
-        <v>2193</v>
+        <f>J3/N10</f>
+        <v>0.34248697366568087</v>
+      </c>
+      <c r="O11">
+        <f>N11*C3</f>
+        <v>2445.0145049992957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>N3/N10</f>
+        <v>6.9849316997605965E-2</v>
+      </c>
+      <c r="O12">
+        <f>N12*C3</f>
+        <v>498.65427404590901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>L3/N10</f>
+        <v>0.58766370933671319</v>
+      </c>
+      <c r="O13">
+        <f>C3*N13</f>
+        <v>4195.3312209547958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f>O13+O12/2</f>
+        <v>4444.6583579777507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f>O11+(O12/2)</f>
+        <v>2694.3416420222502</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f>P15+P16</f>
+        <v>7139.0000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/compteurs.xlsx
+++ b/compteurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/735d5fd0846662ea/Documents/08_Projets/01_PanneauPV/DataAnalysis/SmartMeterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_2B59D2BFD3D0D0181FF937115945D8F471A1FCBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90D14A5-BF22-44F8-96D9-1FB4CECC1639}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_491DD0A2D3F05F7D17D83911595ED87656CD708B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CFF57C-0550-48DA-8239-4D44AC875570}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="21794" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -83,6 +83,39 @@
     <t>Conso Total SDA</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>PV Théorique MPA</t>
+  </si>
+  <si>
+    <t>PV Théorique SDA</t>
+  </si>
+  <si>
+    <t>Grid Théorique MPA</t>
+  </si>
+  <si>
+    <t>Grid Théorique SDA</t>
+  </si>
+  <si>
+    <t>Surplus MPA</t>
+  </si>
+  <si>
+    <t>Surplus SDA</t>
+  </si>
+  <si>
+    <t>PV Final MPA</t>
+  </si>
+  <si>
+    <t>Grid Final MPA</t>
+  </si>
+  <si>
+    <t>PV Final SDA</t>
+  </si>
+  <si>
+    <t>Grid Final SDA</t>
+  </si>
+  <si>
     <t>2024-12-14T16:30:00Z</t>
   </si>
   <si>
@@ -98,7 +131,61 @@
     <t>2024-12-14T17:30:00Z</t>
   </si>
   <si>
+    <t>2024-12-14T17:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T18:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T18:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T18:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T18:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T19:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T19:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T19:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T19:45:00Z</t>
+  </si>
+  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total PV</t>
+  </si>
+  <si>
+    <t>Total Grid</t>
+  </si>
+  <si>
+    <t>Résumé Wh</t>
+  </si>
+  <si>
+    <t>Oiken achète</t>
+  </si>
+  <si>
+    <t>SDA doit à Oiken</t>
+  </si>
+  <si>
+    <t>MPA doit à Oiken</t>
+  </si>
+  <si>
+    <t>MPA doit à SDA</t>
+  </si>
+  <si>
+    <t>SDA doit a MPA</t>
+  </si>
+  <si>
+    <t>Résumé kWh</t>
   </si>
 </sst>
 </file>
@@ -461,34 +548,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,10 +636,49 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>5772468</v>
@@ -588,10 +725,40 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>5779607</v>
@@ -638,10 +805,40 @@
       <c r="Q3">
         <v>4444.6583579777507</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2694.3416420222502</v>
+      </c>
+      <c r="V3">
+        <v>4444.6583579777507</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>2694.3416420222502</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>4444.6583579777507</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>5784595</v>
@@ -688,10 +885,40 @@
       <c r="Q4">
         <v>3118.8703296703302</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1869.12967032967</v>
+      </c>
+      <c r="V4">
+        <v>3118.8703296703302</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1869.12967032967</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>3118.8703296703302</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>5789705</v>
@@ -738,10 +965,40 @@
       <c r="Q5">
         <v>3293.558620689656</v>
       </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1816.4413793103449</v>
+      </c>
+      <c r="V5">
+        <v>3293.558620689656</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1816.4413793103449</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>3293.558620689656</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>5794642</v>
@@ -788,91 +1045,889 @@
       <c r="Q6">
         <v>3373.517050040356</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1563.4829499596451</v>
+      </c>
+      <c r="V6">
+        <v>3373.517050040356</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1563.4829499596451</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>3373.517050040356</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>5798830</v>
       </c>
       <c r="C7">
-        <v>22174</v>
+        <v>4188</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>11083378</v>
+      </c>
       <c r="J7">
-        <v>7228</v>
+        <v>1430</v>
+      </c>
+      <c r="K7">
+        <v>2661839</v>
       </c>
       <c r="L7">
-        <v>13507</v>
+        <v>2502</v>
+      </c>
+      <c r="M7">
+        <v>493633</v>
       </c>
       <c r="N7">
-        <v>1402</v>
+        <v>225</v>
       </c>
       <c r="P7">
-        <v>7943.3956416219098</v>
+        <v>1554.002886697137</v>
       </c>
       <c r="Q7">
-        <v>14230.60435837809</v>
+        <v>2633.997113302863</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1554.002886697137</v>
+      </c>
+      <c r="V7">
+        <v>2633.997113302863</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1554.002886697137</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>2633.997113302863</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>5803636</v>
+      </c>
+      <c r="C8">
+        <v>4806</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>11084677</v>
+      </c>
+      <c r="J8">
+        <v>1299</v>
+      </c>
+      <c r="K8">
+        <v>2665106</v>
+      </c>
+      <c r="L8">
+        <v>3267</v>
+      </c>
+      <c r="M8">
+        <v>493868</v>
+      </c>
+      <c r="N8">
+        <v>235</v>
+      </c>
+      <c r="P8">
+        <v>1417.975213497188</v>
+      </c>
+      <c r="Q8">
+        <v>3388.0247865028118</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1417.975213497188</v>
+      </c>
+      <c r="V8">
+        <v>3388.0247865028118</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1417.975213497188</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>3388.0247865028118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>5807146</v>
+      </c>
+      <c r="C9">
+        <v>3510</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>11085917</v>
+      </c>
+      <c r="J9">
+        <v>1240</v>
+      </c>
+      <c r="K9">
+        <v>2667177</v>
+      </c>
+      <c r="L9">
+        <v>2071</v>
+      </c>
+      <c r="M9">
+        <v>494087</v>
+      </c>
+      <c r="N9">
+        <v>219</v>
+      </c>
+      <c r="P9">
+        <v>1341.8541076487249</v>
+      </c>
+      <c r="Q9">
+        <v>2168.1458923512751</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1341.8541076487249</v>
+      </c>
+      <c r="V9">
+        <v>2168.1458923512751</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1341.8541076487249</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>2168.1458923512751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>5811670</v>
+      </c>
+      <c r="C10">
+        <v>4524</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>11087207</v>
+      </c>
+      <c r="J10">
+        <v>1290</v>
+      </c>
+      <c r="K10">
+        <v>2670168</v>
+      </c>
+      <c r="L10">
+        <v>2991</v>
+      </c>
+      <c r="M10">
+        <v>494301</v>
+      </c>
       <c r="N10">
-        <f>J3+L3+N3</f>
-        <v>7101</v>
+        <v>214</v>
+      </c>
+      <c r="P10">
+        <v>1406.012903225806</v>
+      </c>
+      <c r="Q10">
+        <v>3117.987096774194</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1406.012903225806</v>
+      </c>
+      <c r="V10">
+        <v>3117.987096774194</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1406.012903225806</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>3117.987096774194</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>5815471</v>
+      </c>
+      <c r="C11">
+        <v>3801</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>11088360</v>
+      </c>
+      <c r="J11">
+        <v>1153</v>
+      </c>
+      <c r="K11">
+        <v>2672635</v>
+      </c>
+      <c r="L11">
+        <v>2467</v>
+      </c>
+      <c r="M11">
+        <v>494512</v>
+      </c>
       <c r="N11">
-        <f>J3/N10</f>
-        <v>0.34248697366568087</v>
-      </c>
-      <c r="O11">
-        <f>N11*C3</f>
-        <v>2445.0145049992957</v>
+        <v>211</v>
+      </c>
+      <c r="P11">
+        <v>1248.644870790916</v>
+      </c>
+      <c r="Q11">
+        <v>2552.3551292090842</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1248.644870790916</v>
+      </c>
+      <c r="V11">
+        <v>2552.3551292090842</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>1248.644870790916</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>2552.3551292090842</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>5819426</v>
+      </c>
+      <c r="C12">
+        <v>3955</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>11089436</v>
+      </c>
+      <c r="J12">
+        <v>1076</v>
+      </c>
+      <c r="K12">
+        <v>2675261</v>
+      </c>
+      <c r="L12">
+        <v>2626</v>
+      </c>
+      <c r="M12">
+        <v>494721</v>
+      </c>
       <c r="N12">
-        <f>N3/N10</f>
-        <v>6.9849316997605965E-2</v>
-      </c>
-      <c r="O12">
-        <f>N12*C3</f>
-        <v>498.65427404590901</v>
+        <v>209</v>
+      </c>
+      <c r="P12">
+        <v>1193.7810023012021</v>
+      </c>
+      <c r="Q12">
+        <v>2761.2189976987979</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1193.7810023012021</v>
+      </c>
+      <c r="V12">
+        <v>2761.2189976987979</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1193.7810023012021</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>2761.2189976987979</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>5822783</v>
+      </c>
+      <c r="C13">
+        <v>3357</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>11090081</v>
+      </c>
+      <c r="J13">
+        <v>645</v>
+      </c>
+      <c r="K13">
+        <v>2677794</v>
+      </c>
+      <c r="L13">
+        <v>2533</v>
+      </c>
+      <c r="M13">
+        <v>494929</v>
+      </c>
       <c r="N13">
-        <f>L3/N10</f>
-        <v>0.58766370933671319</v>
-      </c>
-      <c r="O13">
-        <f>C3*N13</f>
-        <v>4195.3312209547958</v>
+        <v>208</v>
+      </c>
+      <c r="P13">
+        <v>742.5850561134082</v>
+      </c>
+      <c r="Q13">
+        <v>2614.414943886592</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>742.5850561134082</v>
+      </c>
+      <c r="V13">
+        <v>2614.414943886592</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>742.5850561134082</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>2614.414943886592</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>5826135</v>
+      </c>
+      <c r="C14">
+        <v>3352</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>11090788</v>
+      </c>
+      <c r="J14">
+        <v>707</v>
+      </c>
+      <c r="K14">
+        <v>2680202</v>
+      </c>
+      <c r="L14">
+        <v>2408</v>
+      </c>
+      <c r="M14">
+        <v>495138</v>
+      </c>
+      <c r="N14">
+        <v>209</v>
+      </c>
+      <c r="P14">
+        <v>818.33574007220216</v>
+      </c>
+      <c r="Q14">
+        <v>2533.664259927798</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>818.33574007220216</v>
+      </c>
+      <c r="V14">
+        <v>2533.664259927798</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>818.33574007220216</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>2533.664259927798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>5829360</v>
+      </c>
+      <c r="C15">
+        <v>3225</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11091446</v>
+      </c>
+      <c r="J15">
+        <v>658</v>
+      </c>
+      <c r="K15">
+        <v>2682585</v>
+      </c>
+      <c r="L15">
+        <v>2383</v>
+      </c>
+      <c r="M15">
+        <v>495347</v>
+      </c>
+      <c r="N15">
+        <v>209</v>
+      </c>
       <c r="P15">
-        <f>O13+O12/2</f>
-        <v>4444.6583579777507</v>
+        <v>756.63461538461536</v>
+      </c>
+      <c r="Q15">
+        <v>2468.3653846153838</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>756.63461538461536</v>
+      </c>
+      <c r="V15">
+        <v>2468.3653846153838</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>756.63461538461536</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>2468.3653846153838</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>56892</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>16726</v>
+      </c>
+      <c r="L16">
+        <v>36755</v>
+      </c>
+      <c r="N16">
+        <v>3341</v>
+      </c>
       <c r="P16">
-        <f>O11+(O12/2)</f>
-        <v>2694.3416420222502</v>
+        <v>18423.222037353109</v>
+      </c>
+      <c r="Q16">
+        <v>38468.777962646891</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>18423.222037353109</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>38468.777962646891</v>
       </c>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P17">
-        <f>P15+P16</f>
-        <v>7139.0000000000009</v>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19">
+        <v>56892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>38468.777962646891</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>18423.222037353109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>38.46877796264689</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>18.42322203735311</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/compteurs.xlsx
+++ b/compteurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/735d5fd0846662ea/Documents/08_Projets/01_PanneauPV/DataAnalysis/SmartMeterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_491DD0A2D3F05F7D17D83911595ED87656CD708B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CFF57C-0550-48DA-8239-4D44AC875570}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0955F1B2D3A0D014B37A2511595ED87656CCEB48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E8C2AA-F58C-4E93-ACFA-A150AD99F8B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>Timestamp</t>
   </si>
@@ -116,46 +116,145 @@
     <t>Grid Final SDA</t>
   </si>
   <si>
-    <t>2024-12-14T16:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T16:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T17:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T17:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T17:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T17:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T18:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T18:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T18:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T18:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T19:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T19:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T19:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-14T19:45:00Z</t>
+    <t>2024-12-14T21:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T21:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T22:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T22:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T22:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T22:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T23:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T23:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-14T23:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T00:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T00:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T00:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T01:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T01:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T01:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T02:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T02:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T02:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T02:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T03:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T03:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T03:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T04:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T04:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T04:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T04:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T05:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T05:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T05:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T06:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T06:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T06:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T06:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T07:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T07:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T07:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T07:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T08:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T08:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T08:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-12-15T09:00:00Z</t>
   </si>
   <si>
     <t>Total</t>
@@ -548,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N1" activeCellId="4" sqref="C1:C1048576 E1:E1048576 J1:J1048576 L1:L1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +680,7 @@
     <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -681,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>5772468</v>
+        <v>5851738</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -702,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11074720</v>
+        <v>11098781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2645830</v>
+        <v>2695946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>492006</v>
+        <v>496958</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -761,10 +860,10 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>5779607</v>
+        <v>5854423</v>
       </c>
       <c r="C3">
-        <v>7139</v>
+        <v>2685</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -782,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11077152</v>
+        <v>11099854</v>
       </c>
       <c r="J3">
-        <v>2432</v>
+        <v>1073</v>
       </c>
       <c r="K3">
-        <v>2650003</v>
+        <v>2697352</v>
       </c>
       <c r="L3">
-        <v>4173</v>
+        <v>1406</v>
       </c>
       <c r="M3">
-        <v>492502</v>
+        <v>497156</v>
       </c>
       <c r="N3">
-        <v>496</v>
+        <v>198</v>
       </c>
       <c r="P3">
-        <v>2694.3416420222502</v>
+        <v>1175.5024280911471</v>
       </c>
       <c r="Q3">
-        <v>4444.6583579777507</v>
+        <v>1509.4975719088529</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -812,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2694.3416420222502</v>
+        <v>1175.5024280911471</v>
       </c>
       <c r="V3">
-        <v>4444.6583579777507</v>
+        <v>1509.4975719088529</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -827,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>2694.3416420222502</v>
+        <v>1175.5024280911471</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>4444.6583579777507</v>
+        <v>1509.4975719088529</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -841,10 +940,10 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>5784595</v>
+        <v>5856115</v>
       </c>
       <c r="C4">
-        <v>4988</v>
+        <v>1692</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -862,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11078889</v>
+        <v>11100960</v>
       </c>
       <c r="J4">
-        <v>1737</v>
+        <v>1106</v>
       </c>
       <c r="K4">
-        <v>2652994</v>
+        <v>2697771</v>
       </c>
       <c r="L4">
-        <v>2991</v>
+        <v>419</v>
       </c>
       <c r="M4">
-        <v>492779</v>
+        <v>497330</v>
       </c>
       <c r="N4">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="P4">
-        <v>1869.12967032967</v>
+        <v>1188.0847557386701</v>
       </c>
       <c r="Q4">
-        <v>3118.8703296703302</v>
+        <v>503.9152442613302</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1869.12967032967</v>
+        <v>1188.0847557386701</v>
       </c>
       <c r="V4">
-        <v>3118.8703296703302</v>
+        <v>503.9152442613302</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -907,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1869.12967032967</v>
+        <v>1188.0847557386701</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>3118.8703296703302</v>
+        <v>503.9152442613302</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -921,10 +1020,10 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>5789705</v>
+        <v>5858059</v>
       </c>
       <c r="C5">
-        <v>5110</v>
+        <v>1944</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -942,28 +1041,28 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11080508</v>
+        <v>11102030</v>
       </c>
       <c r="J5">
-        <v>1619</v>
+        <v>1070</v>
       </c>
       <c r="K5">
-        <v>2656080</v>
+        <v>2698474</v>
       </c>
       <c r="L5">
-        <v>3086</v>
+        <v>703</v>
       </c>
       <c r="M5">
-        <v>493149</v>
+        <v>497519</v>
       </c>
       <c r="N5">
-        <v>370</v>
+        <v>189</v>
       </c>
       <c r="P5">
-        <v>1816.4413793103449</v>
+        <v>1153.8165137614681</v>
       </c>
       <c r="Q5">
-        <v>3293.558620689656</v>
+        <v>790.18348623853205</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -972,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1816.4413793103449</v>
+        <v>1153.8165137614681</v>
       </c>
       <c r="V5">
-        <v>3293.558620689656</v>
+        <v>790.18348623853205</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -987,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1816.4413793103449</v>
+        <v>1153.8165137614681</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>3293.558620689656</v>
+        <v>790.18348623853205</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1001,10 +1100,10 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>5794642</v>
+        <v>5860626</v>
       </c>
       <c r="C6">
-        <v>4937</v>
+        <v>2567</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1022,28 +1121,28 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11081948</v>
+        <v>11103154</v>
       </c>
       <c r="J6">
-        <v>1440</v>
+        <v>1124</v>
       </c>
       <c r="K6">
-        <v>2659337</v>
+        <v>2699658</v>
       </c>
       <c r="L6">
-        <v>3257</v>
+        <v>1184</v>
       </c>
       <c r="M6">
-        <v>493408</v>
+        <v>497754</v>
       </c>
       <c r="N6">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="P6">
-        <v>1563.4829499596451</v>
+        <v>1253.2168698387729</v>
       </c>
       <c r="Q6">
-        <v>3373.517050040356</v>
+        <v>1313.7831301612271</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1052,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1563.4829499596451</v>
+        <v>1253.2168698387729</v>
       </c>
       <c r="V6">
-        <v>3373.517050040356</v>
+        <v>1313.7831301612271</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1067,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1563.4829499596451</v>
+        <v>1253.2168698387729</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>3373.517050040356</v>
+        <v>1313.7831301612271</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1081,10 +1180,10 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>5798830</v>
+        <v>5862505</v>
       </c>
       <c r="C7">
-        <v>4188</v>
+        <v>1879</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1102,28 +1201,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11083378</v>
+        <v>11104349</v>
       </c>
       <c r="J7">
-        <v>1430</v>
+        <v>1195</v>
       </c>
       <c r="K7">
-        <v>2661839</v>
+        <v>2700149</v>
       </c>
       <c r="L7">
-        <v>2502</v>
+        <v>491</v>
       </c>
       <c r="M7">
-        <v>493633</v>
+        <v>497944</v>
       </c>
       <c r="N7">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="P7">
-        <v>1554.002886697137</v>
+        <v>1292.06289978678</v>
       </c>
       <c r="Q7">
-        <v>2633.997113302863</v>
+        <v>586.93710021321965</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1132,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1554.002886697137</v>
+        <v>1292.06289978678</v>
       </c>
       <c r="V7">
-        <v>2633.997113302863</v>
+        <v>586.93710021321965</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1147,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1554.002886697137</v>
+        <v>1292.06289978678</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>2633.997113302863</v>
+        <v>586.93710021321965</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1161,10 +1260,10 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <v>5803636</v>
+        <v>5865175</v>
       </c>
       <c r="C8">
-        <v>4806</v>
+        <v>2670</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1182,28 +1281,28 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11084677</v>
+        <v>11105494</v>
       </c>
       <c r="J8">
-        <v>1299</v>
+        <v>1145</v>
       </c>
       <c r="K8">
-        <v>2665106</v>
+        <v>2701514</v>
       </c>
       <c r="L8">
-        <v>3267</v>
+        <v>1365</v>
       </c>
       <c r="M8">
-        <v>493868</v>
+        <v>498128</v>
       </c>
       <c r="N8">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="P8">
-        <v>1417.975213497188</v>
+        <v>1225.97995545657</v>
       </c>
       <c r="Q8">
-        <v>3388.0247865028118</v>
+        <v>1444.02004454343</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1212,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1417.975213497188</v>
+        <v>1225.97995545657</v>
       </c>
       <c r="V8">
-        <v>3388.0247865028118</v>
+        <v>1444.02004454343</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1227,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1417.975213497188</v>
+        <v>1225.97995545657</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>3388.0247865028118</v>
+        <v>1444.02004454343</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1241,10 +1340,10 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>5807146</v>
+        <v>5867101</v>
       </c>
       <c r="C9">
-        <v>3510</v>
+        <v>1926</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1262,28 +1361,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11085917</v>
+        <v>11106539</v>
       </c>
       <c r="J9">
-        <v>1240</v>
+        <v>1045</v>
       </c>
       <c r="K9">
-        <v>2667177</v>
+        <v>2702175</v>
       </c>
       <c r="L9">
-        <v>2071</v>
+        <v>661</v>
       </c>
       <c r="M9">
-        <v>494087</v>
+        <v>498315</v>
       </c>
       <c r="N9">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="P9">
-        <v>1341.8541076487249</v>
+        <v>1158.3470681458</v>
       </c>
       <c r="Q9">
-        <v>2168.1458923512751</v>
+        <v>767.65293185419955</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1292,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1341.8541076487249</v>
+        <v>1158.3470681458</v>
       </c>
       <c r="V9">
-        <v>2168.1458923512751</v>
+        <v>767.65293185419955</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1307,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1341.8541076487249</v>
+        <v>1158.3470681458</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>2168.1458923512751</v>
+        <v>767.65293185419955</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1321,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>5811670</v>
+        <v>5868727</v>
       </c>
       <c r="C10">
-        <v>4524</v>
+        <v>1626</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1342,28 +1441,28 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11087207</v>
+        <v>11107558</v>
       </c>
       <c r="J10">
-        <v>1290</v>
+        <v>1019</v>
       </c>
       <c r="K10">
-        <v>2670168</v>
+        <v>2702594</v>
       </c>
       <c r="L10">
-        <v>2991</v>
+        <v>419</v>
       </c>
       <c r="M10">
-        <v>494301</v>
+        <v>498503</v>
       </c>
       <c r="N10">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="P10">
-        <v>1406.012903225806</v>
+        <v>1113</v>
       </c>
       <c r="Q10">
-        <v>3117.987096774194</v>
+        <v>513</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1372,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1406.012903225806</v>
+        <v>1113</v>
       </c>
       <c r="V10">
-        <v>3117.987096774194</v>
+        <v>513</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1387,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1406.012903225806</v>
+        <v>1113</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>3117.987096774194</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -1401,10 +1500,10 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>5815471</v>
+        <v>5871398</v>
       </c>
       <c r="C11">
-        <v>3801</v>
+        <v>2671</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1422,28 +1521,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11088360</v>
+        <v>11108608</v>
       </c>
       <c r="J11">
-        <v>1153</v>
+        <v>1050</v>
       </c>
       <c r="K11">
-        <v>2672635</v>
+        <v>2704028</v>
       </c>
       <c r="L11">
-        <v>2467</v>
+        <v>1434</v>
       </c>
       <c r="M11">
-        <v>494512</v>
+        <v>498688</v>
       </c>
       <c r="N11">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="P11">
-        <v>1248.644870790916</v>
+        <v>1143.356125889846</v>
       </c>
       <c r="Q11">
-        <v>2552.3551292090842</v>
+        <v>1527.643874110154</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1452,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1248.644870790916</v>
+        <v>1143.356125889846</v>
       </c>
       <c r="V11">
-        <v>2552.3551292090842</v>
+        <v>1527.643874110154</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1467,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1248.644870790916</v>
+        <v>1143.356125889846</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>2552.3551292090842</v>
+        <v>1527.643874110154</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -1481,10 +1580,10 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>5819426</v>
+        <v>5873164</v>
       </c>
       <c r="C12">
-        <v>3955</v>
+        <v>1766</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1502,28 +1601,28 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11089436</v>
+        <v>11109665</v>
       </c>
       <c r="J12">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="K12">
-        <v>2675261</v>
+        <v>2704547</v>
       </c>
       <c r="L12">
-        <v>2626</v>
+        <v>519</v>
       </c>
       <c r="M12">
-        <v>494721</v>
+        <v>498877</v>
       </c>
       <c r="N12">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="P12">
-        <v>1193.7810023012021</v>
+        <v>1152.152407932012</v>
       </c>
       <c r="Q12">
-        <v>2761.2189976987979</v>
+        <v>613.84759206798867</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1532,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1193.7810023012021</v>
+        <v>1152.152407932012</v>
       </c>
       <c r="V12">
-        <v>2761.2189976987979</v>
+        <v>613.84759206798867</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1547,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1193.7810023012021</v>
+        <v>1152.152407932012</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>2761.2189976987979</v>
+        <v>613.84759206798867</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -1561,10 +1660,10 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>5822783</v>
+        <v>5875095</v>
       </c>
       <c r="C13">
-        <v>3357</v>
+        <v>1931</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1582,28 +1681,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11090081</v>
+        <v>11110875</v>
       </c>
       <c r="J13">
-        <v>645</v>
+        <v>1210</v>
       </c>
       <c r="K13">
-        <v>2677794</v>
+        <v>2705079</v>
       </c>
       <c r="L13">
-        <v>2533</v>
+        <v>532</v>
       </c>
       <c r="M13">
-        <v>494929</v>
+        <v>499061</v>
       </c>
       <c r="N13">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="P13">
-        <v>742.5850561134082</v>
+        <v>1305.380062305296</v>
       </c>
       <c r="Q13">
-        <v>2614.414943886592</v>
+        <v>625.61993769470405</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1612,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>742.5850561134082</v>
+        <v>1305.380062305296</v>
       </c>
       <c r="V13">
-        <v>2614.414943886592</v>
+        <v>625.61993769470405</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1627,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>742.5850561134082</v>
+        <v>1305.380062305296</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>2614.414943886592</v>
+        <v>625.61993769470405</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1641,10 +1740,10 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>5826135</v>
+        <v>5877761</v>
       </c>
       <c r="C14">
-        <v>3352</v>
+        <v>2666</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1662,28 +1761,28 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11090788</v>
+        <v>11111909</v>
       </c>
       <c r="J14">
-        <v>707</v>
+        <v>1034</v>
       </c>
       <c r="K14">
-        <v>2680202</v>
+        <v>2706525</v>
       </c>
       <c r="L14">
-        <v>2408</v>
+        <v>1446</v>
       </c>
       <c r="M14">
-        <v>495138</v>
+        <v>499249</v>
       </c>
       <c r="N14">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P14">
-        <v>818.33574007220216</v>
+        <v>1127.1544227886061</v>
       </c>
       <c r="Q14">
-        <v>2533.664259927798</v>
+        <v>1538.8455772113939</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1692,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>818.33574007220216</v>
+        <v>1127.1544227886061</v>
       </c>
       <c r="V14">
-        <v>2533.664259927798</v>
+        <v>1538.8455772113939</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1707,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>818.33574007220216</v>
+        <v>1127.1544227886061</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>2533.664259927798</v>
+        <v>1538.8455772113939</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -1721,10 +1820,10 @@
         <v>40</v>
       </c>
       <c r="B15">
-        <v>5829360</v>
+        <v>5879110</v>
       </c>
       <c r="C15">
-        <v>3225</v>
+        <v>1349</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1742,28 +1841,28 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11091446</v>
+        <v>11112521</v>
       </c>
       <c r="J15">
-        <v>658</v>
+        <v>612</v>
       </c>
       <c r="K15">
-        <v>2682585</v>
+        <v>2707068</v>
       </c>
       <c r="L15">
-        <v>2383</v>
+        <v>543</v>
       </c>
       <c r="M15">
-        <v>495347</v>
+        <v>499435</v>
       </c>
       <c r="N15">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="P15">
-        <v>756.63461538461536</v>
+        <v>709.20581655480987</v>
       </c>
       <c r="Q15">
-        <v>2468.3653846153838</v>
+        <v>639.79418344519013</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1772,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>756.63461538461536</v>
+        <v>709.20581655480987</v>
       </c>
       <c r="V15">
-        <v>2468.3653846153838</v>
+        <v>639.79418344519013</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1787,45 +1886,63 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>756.63461538461536</v>
+        <v>709.20581655480987</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>2468.3653846153838</v>
+        <v>639.79418344519013</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
+      <c r="B16">
+        <v>5880398</v>
+      </c>
       <c r="C16">
-        <v>56892</v>
+        <v>1288</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>11113115</v>
+      </c>
       <c r="J16">
-        <v>16726</v>
+        <v>594</v>
+      </c>
+      <c r="K16">
+        <v>2707573</v>
       </c>
       <c r="L16">
-        <v>36755</v>
+        <v>505</v>
+      </c>
+      <c r="M16">
+        <v>499622</v>
       </c>
       <c r="N16">
-        <v>3341</v>
+        <v>187</v>
       </c>
       <c r="P16">
-        <v>18423.222037353109</v>
+        <v>688.56920684292379</v>
       </c>
       <c r="Q16">
-        <v>38468.777962646891</v>
+        <v>599.43079315707621</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1833,100 +1950,2722 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="U16">
+        <v>688.56920684292379</v>
+      </c>
+      <c r="V16">
+        <v>599.43079315707621</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>18423.222037353109</v>
+        <v>688.56920684292379</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>38468.777962646891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y19" t="s">
+        <v>599.43079315707621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
+      <c r="B17">
+        <v>5882681</v>
+      </c>
+      <c r="C17">
+        <v>2283</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>11113709</v>
+      </c>
+      <c r="J17">
+        <v>594</v>
+      </c>
+      <c r="K17">
+        <v>2709075</v>
+      </c>
+      <c r="L17">
+        <v>1502</v>
+      </c>
+      <c r="M17">
+        <v>499809</v>
+      </c>
+      <c r="N17">
+        <v>187</v>
+      </c>
+      <c r="P17">
+        <v>687.5</v>
+      </c>
+      <c r="Q17">
+        <v>1595.5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>687.5</v>
+      </c>
+      <c r="V17">
+        <v>1595.5</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>687.5</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1595.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>5883972</v>
+      </c>
+      <c r="C18">
+        <v>1291</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>11114304</v>
+      </c>
+      <c r="J18">
+        <v>595</v>
+      </c>
+      <c r="K18">
+        <v>2709580</v>
+      </c>
+      <c r="L18">
+        <v>505</v>
+      </c>
+      <c r="M18">
+        <v>499997</v>
+      </c>
+      <c r="N18">
+        <v>188</v>
+      </c>
+      <c r="P18">
+        <v>690.60481366459624</v>
+      </c>
+      <c r="Q18">
+        <v>600.39518633540376</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>690.60481366459624</v>
+      </c>
+      <c r="V18">
+        <v>600.39518633540376</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>690.60481366459624</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>600.39518633540376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>5885862</v>
+      </c>
+      <c r="C19">
+        <v>1890</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>11114925</v>
+      </c>
+      <c r="J19">
+        <v>621</v>
+      </c>
+      <c r="K19">
+        <v>2710691</v>
+      </c>
+      <c r="L19">
+        <v>1111</v>
+      </c>
+      <c r="M19">
+        <v>500185</v>
+      </c>
+      <c r="N19">
+        <v>188</v>
+      </c>
+      <c r="P19">
+        <v>703.828125</v>
+      </c>
+      <c r="Q19">
+        <v>1186.171875</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>703.828125</v>
+      </c>
+      <c r="V19">
+        <v>1186.171875</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB19">
-        <v>56892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>703.828125</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1186.171875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
         <v>45</v>
       </c>
+      <c r="B20">
+        <v>5887769</v>
+      </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>11115646</v>
+      </c>
+      <c r="J20">
+        <v>721</v>
+      </c>
+      <c r="K20">
+        <v>2711653</v>
+      </c>
+      <c r="L20">
+        <v>962</v>
+      </c>
+      <c r="M20">
+        <v>500372</v>
+      </c>
+      <c r="N20">
+        <v>187</v>
+      </c>
+      <c r="P20">
+        <v>830.61577540106953</v>
+      </c>
+      <c r="Q20">
+        <v>1076.3842245989299</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>830.61577540106953</v>
+      </c>
+      <c r="V20">
+        <v>1076.3842245989299</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>830.61577540106953</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>1076.3842245989299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="E20">
-        <v>38468.777962646891</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B21">
+        <v>5889151</v>
+      </c>
+      <c r="C21">
+        <v>1382</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>11116294</v>
+      </c>
+      <c r="J21">
+        <v>648</v>
+      </c>
+      <c r="K21">
+        <v>2712201</v>
+      </c>
+      <c r="L21">
+        <v>548</v>
+      </c>
+      <c r="M21">
+        <v>500556</v>
+      </c>
+      <c r="N21">
+        <v>184</v>
+      </c>
+      <c r="P21">
+        <v>741.07246376811599</v>
+      </c>
+      <c r="Q21">
+        <v>640.92753623188412</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>741.07246376811599</v>
+      </c>
+      <c r="V21">
+        <v>640.92753623188412</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>741.07246376811599</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>640.92753623188412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="G20">
-        <v>18423.222037353109</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="B22">
+        <v>5891365</v>
+      </c>
+      <c r="C22">
+        <v>2214</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>29</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>11116866</v>
+      </c>
+      <c r="J22">
+        <v>572</v>
+      </c>
+      <c r="K22">
+        <v>2713655</v>
+      </c>
+      <c r="L22">
+        <v>1454</v>
+      </c>
+      <c r="M22">
+        <v>500744</v>
+      </c>
+      <c r="N22">
+        <v>188</v>
+      </c>
+      <c r="P22">
+        <v>666</v>
+      </c>
+      <c r="Q22">
+        <v>1548</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>666</v>
+      </c>
+      <c r="V22">
+        <v>1548</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>666</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="B23">
+        <v>5892882</v>
+      </c>
+      <c r="C23">
+        <v>1517</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>11117454</v>
+      </c>
+      <c r="J23">
+        <v>588</v>
+      </c>
+      <c r="K23">
+        <v>2714397</v>
+      </c>
+      <c r="L23">
+        <v>742</v>
+      </c>
+      <c r="M23">
+        <v>500931</v>
+      </c>
+      <c r="N23">
+        <v>187</v>
+      </c>
+      <c r="P23">
+        <v>681.5</v>
+      </c>
+      <c r="Q23">
+        <v>835.5</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>681.5</v>
+      </c>
+      <c r="V23">
+        <v>835.5</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>681.5</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>835.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24">
+        <v>5894336</v>
+      </c>
+      <c r="C24">
+        <v>1454</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>11118016</v>
+      </c>
+      <c r="J24">
+        <v>562</v>
+      </c>
+      <c r="K24">
+        <v>2715103</v>
+      </c>
+      <c r="L24">
+        <v>706</v>
+      </c>
+      <c r="M24">
+        <v>501116</v>
+      </c>
+      <c r="N24">
+        <v>185</v>
+      </c>
+      <c r="P24">
+        <v>654.95044735030979</v>
+      </c>
+      <c r="Q24">
+        <v>799.04955264969033</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>654.95044735030979</v>
+      </c>
+      <c r="V24">
+        <v>799.04955264969033</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>654.95044735030979</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>799.04955264969033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>38.46877796264689</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>18.42322203735311</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
+      <c r="B25">
+        <v>5896655</v>
+      </c>
+      <c r="C25">
+        <v>2319</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>11118583</v>
+      </c>
+      <c r="J25">
+        <v>567</v>
+      </c>
+      <c r="K25">
+        <v>2716659</v>
+      </c>
+      <c r="L25">
+        <v>1556</v>
+      </c>
+      <c r="M25">
+        <v>501304</v>
+      </c>
+      <c r="N25">
+        <v>188</v>
+      </c>
+      <c r="P25">
+        <v>663.28818693206404</v>
+      </c>
+      <c r="Q25">
+        <v>1655.711813067936</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>663.28818693206404</v>
+      </c>
+      <c r="V25">
+        <v>1655.711813067936</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>663.28818693206404</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>1655.711813067936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>5899941</v>
+      </c>
+      <c r="C26">
+        <v>3286</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>11121115</v>
+      </c>
+      <c r="J26">
+        <v>2532</v>
+      </c>
+      <c r="K26">
+        <v>2717228</v>
+      </c>
+      <c r="L26">
+        <v>569</v>
+      </c>
+      <c r="M26">
+        <v>501488</v>
+      </c>
+      <c r="N26">
+        <v>184</v>
+      </c>
+      <c r="P26">
+        <v>2624.798782343988</v>
+      </c>
+      <c r="Q26">
+        <v>661.2012176560122</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2624.798782343988</v>
+      </c>
+      <c r="V26">
+        <v>661.2012176560122</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>2624.798782343988</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>661.2012176560122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>5904009</v>
+      </c>
+      <c r="C27">
+        <v>4068</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11123764</v>
+      </c>
+      <c r="J27">
+        <v>2649</v>
+      </c>
+      <c r="K27">
+        <v>2718503</v>
+      </c>
+      <c r="L27">
+        <v>1275</v>
+      </c>
+      <c r="M27">
+        <v>501675</v>
+      </c>
+      <c r="N27">
+        <v>187</v>
+      </c>
+      <c r="P27">
+        <v>2713.8141571393821</v>
+      </c>
+      <c r="Q27">
+        <v>1354.1858428606181</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2713.8141571393821</v>
+      </c>
+      <c r="V27">
+        <v>1354.1858428606181</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>2713.8141571393821</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1354.1858428606181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>5908578</v>
+      </c>
+      <c r="C28">
+        <v>4569</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>11126273</v>
+      </c>
+      <c r="J28">
+        <v>2509</v>
+      </c>
+      <c r="K28">
+        <v>2720338</v>
+      </c>
+      <c r="L28">
+        <v>1835</v>
+      </c>
+      <c r="M28">
+        <v>501862</v>
+      </c>
+      <c r="N28">
+        <v>187</v>
+      </c>
+      <c r="P28">
+        <v>2624.326307658353</v>
+      </c>
+      <c r="Q28">
+        <v>1944.673692341647</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2624.326307658353</v>
+      </c>
+      <c r="V28">
+        <v>1944.673692341647</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>2624.326307658353</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1944.673692341647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>5912258</v>
+      </c>
+      <c r="C29">
+        <v>3680</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>11128752</v>
+      </c>
+      <c r="J29">
+        <v>2479</v>
+      </c>
+      <c r="K29">
+        <v>2721347</v>
+      </c>
+      <c r="L29">
+        <v>1009</v>
+      </c>
+      <c r="M29">
+        <v>502048</v>
+      </c>
+      <c r="N29">
+        <v>186</v>
+      </c>
+      <c r="P29">
+        <v>2576.2003266194879</v>
+      </c>
+      <c r="Q29">
+        <v>1103.7996733805121</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2576.2003266194879</v>
+      </c>
+      <c r="V29">
+        <v>1103.7996733805121</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>2576.2003266194879</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>1103.7996733805121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>5916036</v>
+      </c>
+      <c r="C30">
+        <v>3778</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>11131188</v>
+      </c>
+      <c r="J30">
+        <v>2436</v>
+      </c>
+      <c r="K30">
+        <v>2722528</v>
+      </c>
+      <c r="L30">
+        <v>1181</v>
+      </c>
+      <c r="M30">
+        <v>502236</v>
+      </c>
+      <c r="N30">
+        <v>188</v>
+      </c>
+      <c r="P30">
+        <v>2512.047306176084</v>
+      </c>
+      <c r="Q30">
+        <v>1265.952693823916</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>2512.047306176084</v>
+      </c>
+      <c r="V30">
+        <v>1265.952693823916</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2512.047306176084</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1265.952693823916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>5919803</v>
+      </c>
+      <c r="C31">
+        <v>3767</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>11133015</v>
+      </c>
+      <c r="J31">
+        <v>1827</v>
+      </c>
+      <c r="K31">
+        <v>2724249</v>
+      </c>
+      <c r="L31">
+        <v>1721</v>
+      </c>
+      <c r="M31">
+        <v>502419</v>
+      </c>
+      <c r="N31">
+        <v>183</v>
+      </c>
+      <c r="P31">
+        <v>1937.0113910479761</v>
+      </c>
+      <c r="Q31">
+        <v>1829.9886089520239</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1937.0113910479761</v>
+      </c>
+      <c r="V31">
+        <v>1829.9886089520239</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>1937.0113910479761</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>1829.9886089520239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>5922554</v>
+      </c>
+      <c r="C32">
+        <v>2751</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>11134594</v>
+      </c>
+      <c r="J32">
+        <v>1579</v>
+      </c>
+      <c r="K32">
+        <v>2725236</v>
+      </c>
+      <c r="L32">
+        <v>987</v>
+      </c>
+      <c r="M32">
+        <v>502604</v>
+      </c>
+      <c r="N32">
+        <v>185</v>
+      </c>
+      <c r="P32">
+        <v>1671.5</v>
+      </c>
+      <c r="Q32">
+        <v>1079.5</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1671.5</v>
+      </c>
+      <c r="V32">
+        <v>1079.5</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1671.5</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>1079.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>5925212</v>
+      </c>
+      <c r="C33">
+        <v>2658</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>11136087</v>
+      </c>
+      <c r="J33">
+        <v>1493</v>
+      </c>
+      <c r="K33">
+        <v>2726250</v>
+      </c>
+      <c r="L33">
+        <v>1014</v>
+      </c>
+      <c r="M33">
+        <v>502789</v>
+      </c>
+      <c r="N33">
+        <v>185</v>
+      </c>
+      <c r="P33">
+        <v>1565.4751114413079</v>
+      </c>
+      <c r="Q33">
+        <v>1092.524888558693</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1565.4751114413079</v>
+      </c>
+      <c r="V33">
+        <v>1092.524888558693</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>1565.4751114413079</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1092.524888558693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>5929726</v>
+      </c>
+      <c r="C34">
+        <v>4514</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>11137551</v>
+      </c>
+      <c r="J34">
+        <v>1464</v>
+      </c>
+      <c r="K34">
+        <v>2729086</v>
+      </c>
+      <c r="L34">
+        <v>2836</v>
+      </c>
+      <c r="M34">
+        <v>502974</v>
+      </c>
+      <c r="N34">
+        <v>185</v>
+      </c>
+      <c r="P34">
+        <v>1566.5643255295431</v>
+      </c>
+      <c r="Q34">
+        <v>2947.4356744704569</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1566.5643255295431</v>
+      </c>
+      <c r="V34">
+        <v>2947.4356744704569</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1566.5643255295431</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>2947.4356744704569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>5932846</v>
+      </c>
+      <c r="C35">
+        <v>3120</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>11138703</v>
+      </c>
+      <c r="J35">
+        <v>1152</v>
+      </c>
+      <c r="K35">
+        <v>2730867</v>
+      </c>
+      <c r="L35">
+        <v>1781</v>
+      </c>
+      <c r="M35">
+        <v>503162</v>
+      </c>
+      <c r="N35">
+        <v>188</v>
+      </c>
+      <c r="P35">
+        <v>1245.6007689843</v>
+      </c>
+      <c r="Q35">
+        <v>1874.3992310157</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1245.6007689843</v>
+      </c>
+      <c r="V35">
+        <v>1874.3992310157</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>1245.6007689843</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1874.3992310157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>5935804</v>
+      </c>
+      <c r="C36">
+        <v>2958</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>11139584</v>
+      </c>
+      <c r="J36">
+        <v>881</v>
+      </c>
+      <c r="K36">
+        <v>2732752</v>
+      </c>
+      <c r="L36">
+        <v>1885</v>
+      </c>
+      <c r="M36">
+        <v>503346</v>
+      </c>
+      <c r="N36">
+        <v>184</v>
+      </c>
+      <c r="P36">
+        <v>975.63864406779669</v>
+      </c>
+      <c r="Q36">
+        <v>1982.361355932203</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>975.63864406779669</v>
+      </c>
+      <c r="V36">
+        <v>1982.361355932203</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>975.63864406779669</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>1982.361355932203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>5938939</v>
+      </c>
+      <c r="C37">
+        <v>3135</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>11140562</v>
+      </c>
+      <c r="J37">
+        <v>978</v>
+      </c>
+      <c r="K37">
+        <v>2734688</v>
+      </c>
+      <c r="L37">
+        <v>1936</v>
+      </c>
+      <c r="M37">
+        <v>503542</v>
+      </c>
+      <c r="N37">
+        <v>196</v>
+      </c>
+      <c r="P37">
+        <v>1084.649517684888</v>
+      </c>
+      <c r="Q37">
+        <v>2050.350482315112</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1084.649517684888</v>
+      </c>
+      <c r="V37">
+        <v>2050.350482315112</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1084.649517684888</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>2050.350482315112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>5940881</v>
+      </c>
+      <c r="C38">
+        <v>1942</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>29</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>11141798</v>
+      </c>
+      <c r="J38">
+        <v>1236</v>
+      </c>
+      <c r="K38">
+        <v>2735205</v>
+      </c>
+      <c r="L38">
+        <v>517</v>
+      </c>
+      <c r="M38">
+        <v>503734</v>
+      </c>
+      <c r="N38">
+        <v>192</v>
+      </c>
+      <c r="P38">
+        <v>1329.9455012853471</v>
+      </c>
+      <c r="Q38">
+        <v>612.05449871465294</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1329.9455012853471</v>
+      </c>
+      <c r="V38">
+        <v>612.05449871465294</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>1329.9455012853471</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>612.05449871465294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>5943214</v>
+      </c>
+      <c r="C39">
+        <v>2333</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>11143159</v>
+      </c>
+      <c r="J39">
+        <v>1361</v>
+      </c>
+      <c r="K39">
+        <v>2735987</v>
+      </c>
+      <c r="L39">
+        <v>782</v>
+      </c>
+      <c r="M39">
+        <v>503922</v>
+      </c>
+      <c r="N39">
+        <v>188</v>
+      </c>
+      <c r="P39">
+        <v>1456.248391248391</v>
+      </c>
+      <c r="Q39">
+        <v>876.75160875160873</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1456.248391248391</v>
+      </c>
+      <c r="V39">
+        <v>876.75160875160873</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>1456.248391248391</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>876.75160875160873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>5945259</v>
+      </c>
+      <c r="C40">
+        <v>2045</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>11144295</v>
+      </c>
+      <c r="J40">
+        <v>1136</v>
+      </c>
+      <c r="K40">
+        <v>2736708</v>
+      </c>
+      <c r="L40">
+        <v>721</v>
+      </c>
+      <c r="M40">
+        <v>504109</v>
+      </c>
+      <c r="N40">
+        <v>187</v>
+      </c>
+      <c r="P40">
+        <v>1230.101516634051</v>
+      </c>
+      <c r="Q40">
+        <v>814.89848336594923</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1230.101516634051</v>
+      </c>
+      <c r="V40">
+        <v>814.89848336594923</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>1230.101516634051</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>814.89848336594923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>5947013</v>
+      </c>
+      <c r="C41">
+        <v>1754</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>29</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>11145396</v>
+      </c>
+      <c r="J41">
+        <v>1101</v>
+      </c>
+      <c r="K41">
+        <v>2737170</v>
+      </c>
+      <c r="L41">
+        <v>462</v>
+      </c>
+      <c r="M41">
+        <v>504293</v>
+      </c>
+      <c r="N41">
+        <v>184</v>
+      </c>
+      <c r="P41">
+        <v>1197.7801946193481</v>
+      </c>
+      <c r="Q41">
+        <v>556.21980538065259</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1197.7801946193481</v>
+      </c>
+      <c r="V41">
+        <v>556.21980538065259</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>1197.7801946193481</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>556.21980538065259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>5949037</v>
+      </c>
+      <c r="C42">
+        <v>2024</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>29</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>11146668</v>
+      </c>
+      <c r="J42">
+        <v>1272</v>
+      </c>
+      <c r="K42">
+        <v>2737737</v>
+      </c>
+      <c r="L42">
+        <v>567</v>
+      </c>
+      <c r="M42">
+        <v>504477</v>
+      </c>
+      <c r="N42">
+        <v>184</v>
+      </c>
+      <c r="P42">
+        <v>1364.674246169056</v>
+      </c>
+      <c r="Q42">
+        <v>659.32575383094411</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1364.674246169056</v>
+      </c>
+      <c r="V42">
+        <v>659.32575383094411</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1364.674246169056</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>659.32575383094411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>5951544</v>
+      </c>
+      <c r="C43">
+        <v>2507</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>11147682</v>
+      </c>
+      <c r="J43">
+        <v>1014</v>
+      </c>
+      <c r="K43">
+        <v>2739064</v>
+      </c>
+      <c r="L43">
+        <v>1327</v>
+      </c>
+      <c r="M43">
+        <v>504667</v>
+      </c>
+      <c r="N43">
+        <v>190</v>
+      </c>
+      <c r="P43">
+        <v>1098.4839984195969</v>
+      </c>
+      <c r="Q43">
+        <v>1408.5160015804031</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1098.4839984195969</v>
+      </c>
+      <c r="V43">
+        <v>1408.5160015804031</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1098.4839984195969</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>1408.5160015804031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>5955608</v>
+      </c>
+      <c r="C44">
+        <v>4064</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>29</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>11149025</v>
+      </c>
+      <c r="J44">
+        <v>1343</v>
+      </c>
+      <c r="K44">
+        <v>2741532</v>
+      </c>
+      <c r="L44">
+        <v>2468</v>
+      </c>
+      <c r="M44">
+        <v>504939</v>
+      </c>
+      <c r="N44">
+        <v>272</v>
+      </c>
+      <c r="P44">
+        <v>1472.117560617193</v>
+      </c>
+      <c r="Q44">
+        <v>2591.8824393828072</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1472.117560617193</v>
+      </c>
+      <c r="V44">
+        <v>2591.8824393828072</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1472.117560617193</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>2591.8824393828072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>5958656</v>
+      </c>
+      <c r="C45">
+        <v>3048</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>11150004</v>
+      </c>
+      <c r="J45">
+        <v>979</v>
+      </c>
+      <c r="K45">
+        <v>2743383</v>
+      </c>
+      <c r="L45">
+        <v>1851</v>
+      </c>
+      <c r="M45">
+        <v>505131</v>
+      </c>
+      <c r="N45">
+        <v>192</v>
+      </c>
+      <c r="P45">
+        <v>1084.248841826605</v>
+      </c>
+      <c r="Q45">
+        <v>1963.751158173395</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1084.248841826605</v>
+      </c>
+      <c r="V45">
+        <v>1963.751158173395</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>1084.248841826605</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>1963.751158173395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>5962143</v>
+      </c>
+      <c r="C46">
+        <v>3487</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>11151252</v>
+      </c>
+      <c r="J46">
+        <v>1248</v>
+      </c>
+      <c r="K46">
+        <v>2745263</v>
+      </c>
+      <c r="L46">
+        <v>1880</v>
+      </c>
+      <c r="M46">
+        <v>505487</v>
+      </c>
+      <c r="N46">
+        <v>356</v>
+      </c>
+      <c r="P46">
+        <v>1427.227898966705</v>
+      </c>
+      <c r="Q46">
+        <v>2059.7721010332948</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1427.227898966705</v>
+      </c>
+      <c r="V46">
+        <v>2059.7721010332948</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1427.227898966705</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>2059.7721010332948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>5966089</v>
+      </c>
+      <c r="C47">
+        <v>3946</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>29</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>11152473</v>
+      </c>
+      <c r="J47">
+        <v>1221</v>
+      </c>
+      <c r="K47">
+        <v>2747773</v>
+      </c>
+      <c r="L47">
+        <v>2510</v>
+      </c>
+      <c r="M47">
+        <v>505681</v>
+      </c>
+      <c r="N47">
+        <v>194</v>
+      </c>
+      <c r="P47">
+        <v>1325.051719745223</v>
+      </c>
+      <c r="Q47">
+        <v>2620.9482802547768</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1325.051719745223</v>
+      </c>
+      <c r="V47">
+        <v>2620.9482802547768</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1325.051719745223</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>2620.9482802547768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>5968451</v>
+      </c>
+      <c r="C48">
+        <v>2362</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>29</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>11153604</v>
+      </c>
+      <c r="J48">
+        <v>1131</v>
+      </c>
+      <c r="K48">
+        <v>2748643</v>
+      </c>
+      <c r="L48">
+        <v>870</v>
+      </c>
+      <c r="M48">
+        <v>506037</v>
+      </c>
+      <c r="N48">
+        <v>356</v>
+      </c>
+      <c r="P48">
+        <v>1311.776834959695</v>
+      </c>
+      <c r="Q48">
+        <v>1050.223165040306</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1311.776834959695</v>
+      </c>
+      <c r="V48">
+        <v>1050.223165040306</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1311.776834959695</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>1050.223165040306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>116713</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>54823</v>
+      </c>
+      <c r="L49">
+        <v>52697</v>
+      </c>
+      <c r="N49">
+        <v>9079</v>
+      </c>
+      <c r="P49">
+        <v>59400.471688433187</v>
+      </c>
+      <c r="Q49">
+        <v>57312.528311566813</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>59400.471688433187</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>57312.528311566813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB52">
+        <v>116713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53">
+        <v>57312.528311566813</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53">
+        <v>59400.471688433187</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54">
+        <v>57.312528311566808</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <v>59.400471688433193</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K54">
         <v>0</v>
       </c>
     </row>
